--- a/Diagramas/entradas y salidas plc.xlsx
+++ b/Diagramas/entradas y salidas plc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HH\lavadora-net\trunk\Diagramas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="18795" windowHeight="8445"/>
   </bookViews>
@@ -219,7 +224,7 @@
     <t>Cuentalitros *</t>
   </si>
   <si>
-    <t>* Revisar que ambos extremos esten aterrizados.</t>
+    <t>* Revisar que la conexión a tierra este aterizada en ambos extremos.</t>
   </si>
 </sst>
 </file>
@@ -307,6 +312,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -354,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -600,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Diagramas/entradas y salidas plc.xlsx
+++ b/Diagramas/entradas y salidas plc.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HH\lavadora-net\trunk\Diagramas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="18795" windowHeight="8445"/>
   </bookViews>
@@ -254,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,11 +272,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,8 +331,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,7 +400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -609,7 +647,7 @@
   <dimension ref="B3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,12 +979,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -979,6 +1017,7 @@
     <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Diagramas/entradas y salidas plc.xlsx
+++ b/Diagramas/entradas y salidas plc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HH\lavadora-net\trunk\Diagramas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="18795" windowHeight="8445"/>
   </bookViews>
@@ -186,12 +191,6 @@
     <t>Vapor</t>
   </si>
   <si>
-    <t>Agua tratada</t>
-  </si>
-  <si>
-    <t>Agua caliente</t>
-  </si>
-  <si>
     <t>Agua fria</t>
   </si>
   <si>
@@ -220,6 +219,12 @@
   </si>
   <si>
     <t>* Revisar que la conexión a tierra este aterizada en ambos extremos.</t>
+  </si>
+  <si>
+    <t>Agua zuavizada</t>
+  </si>
+  <si>
+    <t>Agua caliente o tratada</t>
   </si>
 </sst>
 </file>
@@ -400,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,7 +440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -647,7 +652,7 @@
   <dimension ref="B3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,12 +663,12 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -676,7 +681,7 @@
         <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
@@ -705,7 +710,7 @@
         <v>1003</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -725,7 +730,7 @@
         <v>1004</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -745,7 +750,7 @@
         <v>1005</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -761,9 +766,11 @@
       <c r="F8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>1006</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -981,22 +988,22 @@
     </row>
     <row r="21" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1">
         <v>40</v>
@@ -1004,7 +1011,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1">
         <v>41</v>
